--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2341149367860965</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.843732595502481</v>
+        <v>-4.843732595502473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2915396652477777</v>
@@ -649,7 +649,7 @@
         <v>-0.01887703238252515</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1960688262878791</v>
+        <v>-0.1960688262878789</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.043787627709471</v>
+        <v>-1.098471236600173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.065979549082113</v>
+        <v>-1.33557378467514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.0433308583589</v>
+        <v>-3.760724831723987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.043586127899008</v>
+        <v>-8.903449852632541</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1658281415602522</v>
+        <v>-0.1643260242153952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.116209495155385</v>
+        <v>-0.1458535824755847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2887523638947737</v>
+        <v>-0.263261019273446</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3252060637087789</v>
+        <v>-0.3274139839634447</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.309767299072164</v>
+        <v>4.021638767712775</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.601255537544622</v>
+        <v>4.847975808079552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.247689289580068</v>
+        <v>3.398991157112161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.119760719266675</v>
+        <v>-1.08852509313494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9957525417887858</v>
+        <v>0.9396397628077089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8227653973834438</v>
+        <v>0.6880138852210261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2983229068937498</v>
+        <v>0.332334903133318</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.05180767737737576</v>
+        <v>-0.05098392939220162</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5939887844300829</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.8837588794669365</v>
+        <v>-0.8837588794669338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3843659367904901</v>
@@ -749,7 +749,7 @@
         <v>-0.05666776966533546</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.05327844612848502</v>
+        <v>-0.05327844612848486</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.09215805348940323</v>
+        <v>-0.1402502804300212</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.454820642871721</v>
+        <v>-2.209333742634442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.311888902703092</v>
+        <v>-3.243257068268058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.970492644348754</v>
+        <v>-4.001475981070658</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01554078743768044</v>
+        <v>-0.02320798235053049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.282948168069121</v>
+        <v>-0.2651010571203662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2698823475371934</v>
+        <v>-0.2769304417120528</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2109425549626514</v>
+        <v>-0.219642928920201</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.48605033286365</v>
+        <v>4.609105007051763</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.400682206249677</v>
+        <v>2.316469207504976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.172475712377325</v>
+        <v>2.44053983403496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.022437888021822</v>
+        <v>2.276320401390426</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9986218404840487</v>
+        <v>1.030210622157406</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3986524420474321</v>
+        <v>0.3851272820639741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.243245176804135</v>
+        <v>0.2709597112813844</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1361331539196811</v>
+        <v>0.1584803589061944</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.214618500137919</v>
+        <v>-0.03462685040201646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.343017740384107</v>
+        <v>-2.256463970271811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.302124574435592</v>
+        <v>-4.468244393203106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.907311796788742</v>
+        <v>-6.777552569996631</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03460282602244726</v>
+        <v>-0.02479275701197049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2376849284077427</v>
+        <v>-0.2332710672728276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2884461874970287</v>
+        <v>-0.295821017940049</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3531346544756123</v>
+        <v>-0.3479954632549803</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.843550076550729</v>
+        <v>6.24875626285208</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.693058599576839</v>
+        <v>3.670971052634882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.814914281149898</v>
+        <v>2.47597063379265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09293099690182727</v>
+        <v>0.1861544840249886</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9749301747887402</v>
+        <v>0.9826443588934867</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5882892579181174</v>
+        <v>0.5413417564799822</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2581252131303403</v>
+        <v>0.2273612603632742</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.01153004345900691</v>
+        <v>0.01834294513135809</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.120134537245156</v>
+        <v>-3.120047181744852</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7301971289023984</v>
+        <v>0.725766769330882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.991979868393788e-05</v>
+        <v>0.223989100252534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3629182204811985</v>
+        <v>0.2266285257364654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2777235473481057</v>
+        <v>-0.2748988691113188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05572975221294763</v>
+        <v>0.05083670535812057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0001922430311391196</v>
+        <v>0.01281118893939352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01712972070368762</v>
+        <v>0.008793822379149024</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.417518859959241</v>
+        <v>2.536054019093326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.590586545667473</v>
+        <v>6.859438701494613</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.776385869922608</v>
+        <v>6.876657495865003</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.907486939907861</v>
+        <v>6.420418778446519</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.274210773922051</v>
+        <v>0.313524166345027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8251348542338581</v>
+        <v>0.8171781610967493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5119363989843331</v>
+        <v>0.5369469760258015</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.450906123593903</v>
+        <v>0.4177924793947492</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.6502590207420333</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.8313958987296671</v>
+        <v>-0.8313958987296644</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2031740480750256</v>
@@ -1049,7 +1049,7 @@
         <v>0.05180077244493558</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.04511873474860093</v>
+        <v>-0.04511873474860078</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2234740495155257</v>
+        <v>0.09027313245179173</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1614411506488396</v>
+        <v>0.0677320285027342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8802978337226798</v>
+        <v>-0.8377587109068135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.603486102261205</v>
+        <v>-2.672319205965469</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0287499558705391</v>
+        <v>0.01049274760423651</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01836805993703061</v>
+        <v>0.009131446273800999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06778387382792711</v>
+        <v>-0.06365226365062061</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1335914749027276</v>
+        <v>-0.1356882169516344</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.889445683929228</v>
+        <v>2.857894338493321</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.073194588030288</v>
+        <v>3.06217889631598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.262405757348718</v>
+        <v>2.456079371797527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.852982001506686</v>
+        <v>0.8749248510025809</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4376227047227954</v>
+        <v>0.4188376570583858</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3981142518220524</v>
+        <v>0.402661315562167</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1952430921044455</v>
+        <v>0.2114955907172255</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.04839770249917334</v>
+        <v>0.05027019638621702</v>
       </c>
     </row>
     <row r="19">
